--- a/20151217进度记录.xlsx
+++ b/20151217进度记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
   <si>
     <t>i</t>
   </si>
@@ -75,18 +75,18 @@
     <t>肖、陈</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
     <t>移动端</t>
   </si>
   <si>
-    <t>支付分为两步，卖方支付和卖方确认</t>
+    <t>支付分为两步，卖方支付和卖方确认(paypal)</t>
   </si>
   <si>
     <t>研究中</t>
   </si>
   <si>
+    <t>paypal 支付需要商家确认收款</t>
+  </si>
+  <si>
     <t>翻译</t>
   </si>
   <si>
@@ -99,6 +99,9 @@
     <t>翻译中文文本</t>
   </si>
   <si>
+    <t>中文对应英文excel</t>
+  </si>
+  <si>
     <t>改入网站</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
   </si>
   <si>
     <t>开发计算器，获取商品重量，物流规则，客户填入邮编和购买数量，计算运费。不参与购物流程，仅供客户参考用</t>
+  </si>
+  <si>
+    <t>了解计算器</t>
   </si>
   <si>
     <t>测试</t>
@@ -134,6 +140,12 @@
   </si>
   <si>
     <t>开发中</t>
+  </si>
+  <si>
+    <t>计算器本身已经写好了，但是产品重量是手填的，不是自动从页面抓的。</t>
+  </si>
+  <si>
+    <t>计算器位置是写死的，不是可以调整的。</t>
   </si>
   <si>
     <t>商品属性</t>
@@ -161,6 +173,16 @@
 3，通过计算器计算。计算结果自动带入价格</t>
   </si>
   <si>
+    <t xml:space="preserve">1，免运费。2，固定收费，3，按重量和邮编计算邮费并收钱
+ecs_huntermain 表
+rn是流水号，warehouse是我们的仓库，全是sunshine west，WeightKG不用管，SubName是区号（小的，一万多个，相当于街道），postcode是邮编，几千个，ZoneCode和ZoneName是这家物流给分的区，62个，这个不具有普适性，就是这个物流用。StateName是州名，一共8个。Courier是这个物流的名字，他们叫Hunter Express，最后两个不用管
+</t>
+  </si>
+  <si>
+    <t>2 ecs_hunterzone
+这个第二个表，rn是流水，zonecode和zonename是这个物流分的地区号和地区名，1-62个。basic charge是首重，perkg是续重</t>
+  </si>
+  <si>
     <t>订单管理</t>
   </si>
   <si>
@@ -215,6 +237,9 @@
     <t>目前本系统库存管理功能较弱。上架商品时只有商品供货商可以填，需要增加成本，平均成本，盈利等库存管理的功能。</t>
   </si>
   <si>
+    <t>线不做 ，erp模块</t>
+  </si>
+  <si>
     <t>研究以何种形式实现。在ecshop中实现，还是以ecshop为基础做插件，还是干脆从新开发新的erp管理</t>
   </si>
   <si>
@@ -246,6 +271,9 @@
   </si>
   <si>
     <t>首页每个楼层下方的分类条，目前是鼠标单击，分类条长度滑动，变色。要改成鼠标悬浮上方，分类条长度滑动，变色。可参考</t>
+  </si>
+  <si>
+    <t>参考：http://www.zzycs.com/</t>
   </si>
   <si>
     <t>首页右侧的悬浮窗</t>
@@ -261,7 +289,13 @@
     <t>需超链接提供</t>
   </si>
   <si>
+    <t>等公众号地址</t>
+  </si>
+  <si>
     <t>客服邮箱做个链接，直接mail to</t>
+  </si>
+  <si>
+    <t>（鼠标单击，自动打开系统默认的邮件编辑器，收件人是stadium.sports@hotmail.com）</t>
   </si>
   <si>
     <t>最后回到顶部，改成Back To Top</t>
@@ -328,6 +362,9 @@
   </si>
   <si>
     <t>反馈、修改</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>模板堂去标示</t>
@@ -361,12 +398,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +414,21 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -408,12 +460,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,61 +478,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,8 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -533,8 +533,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -547,6 +578,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -554,6 +599,18 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -563,7 +620,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +740,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,133 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,13 +776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,30 +872,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -862,15 +883,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +913,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -914,153 +959,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,23 +1130,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1449,17 +1524,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="D75" activePane="bottomRight" state="frozenSplit"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1467,6 +1542,7 @@
     <col min="4" max="4" width="12.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="41.875" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="77.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:7">
@@ -1531,7 +1607,7 @@
       <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1539,43 +1615,41 @@
       </c>
     </row>
     <row r="6" ht="27" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6">
@@ -1588,12 +1662,12 @@
         <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1601,45 +1675,43 @@
       </c>
     </row>
     <row r="10" ht="27" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="6">
         <v>1.3</v>
       </c>
@@ -1650,28 +1722,30 @@
         <v>9</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" ht="40.5" spans="1:7">
+      <c r="H13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" ht="40.5" spans="1:8">
       <c r="A15" s="6">
         <v>2.1</v>
       </c>
@@ -1681,191 +1755,199 @@
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="H15" s="17" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="F16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" ht="40.5" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="21" ht="40.5" spans="1:8">
       <c r="A21" s="6">
         <v>3.1</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="H21" s="17" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" ht="40.5" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="8" t="s">
+    <row r="23" ht="40.5" spans="1:8">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H24" s="19" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6">
         <v>3.2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -1873,149 +1955,151 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="54" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-    </row>
-    <row r="33" ht="54" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" ht="69" customHeight="1" spans="1:8">
       <c r="A33" s="6">
         <v>3.3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8" t="s">
+      <c r="H33" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" ht="69" customHeight="1" spans="1:8">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="H34" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" ht="69" customHeight="1" spans="1:7">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+    <row r="36" ht="69" customHeight="1" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6">
         <v>3.4</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2023,61 +2107,59 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6">
         <v>3.5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -2085,61 +2167,59 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="8" t="s">
+      <c r="G42" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8" t="s">
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6">
         <v>3.6</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -2147,74 +2227,72 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8" t="s">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6">
         <v>4.1</v>
       </c>
       <c r="B50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D50" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -2222,262 +2300,260 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="52" ht="27" spans="1:7">
-      <c r="A52" s="8"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8" t="s">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="8"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
     </row>
     <row r="56" ht="40.5" spans="1:7">
       <c r="A56" s="6">
         <v>4.2</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D56" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="8"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8" t="s">
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
     </row>
     <row r="61" ht="67.5" spans="1:7">
       <c r="A61" s="6">
         <v>4.3</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-    </row>
-    <row r="63" ht="40.5" spans="1:7">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" ht="40.5" spans="1:8">
       <c r="A63" s="6">
         <v>4.4</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G63" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" ht="40.5" spans="1:7">
-      <c r="A64" s="8"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="8" t="s">
+      <c r="H63" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" ht="40.5" spans="1:8">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="65" ht="27" spans="1:7">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" ht="27" spans="1:8">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" ht="27" spans="1:7">
       <c r="A67" s="7">
         <v>5.1</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F67" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F67" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -2489,18 +2565,18 @@
         <v>5.2</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -2508,118 +2584,127 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="8">
+      <c r="A69" s="9">
         <v>5.3</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G69" s="8" t="s">
+      <c r="B69" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="70" ht="40.5" spans="1:7">
+    <row r="70" ht="40.5" spans="1:8">
       <c r="A70" s="7">
         <v>5.4</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="H70" s="17" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="71" ht="27" spans="1:7">
-      <c r="A71" s="8">
+      <c r="A71" s="9">
         <v>5.5</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="B71" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:7">
+    <row r="72" ht="27" spans="1:8">
       <c r="A72" s="7">
         <v>5.6</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" ht="27" spans="1:7">
-      <c r="A73" s="8">
+      <c r="H72" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" ht="27" spans="1:8">
+      <c r="A73" s="9">
         <v>5.7</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G73" s="8" t="s">
+      <c r="B73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="H73" s="17" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="74" ht="27" spans="1:7">
@@ -2627,64 +2712,64 @@
         <v>5.8</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" ht="27" spans="1:7">
-      <c r="A75" s="8">
+      <c r="A75" s="9">
         <v>5.9</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="C75" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="8" t="s">
+      <c r="G75" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="76" ht="54" spans="1:7">
-      <c r="A76" s="14" t="s">
-        <v>83</v>
+      <c r="A76" s="24" t="s">
+        <v>93</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F76" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F76" s="21" t="s">
         <v>12</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -2692,25 +2777,25 @@
       </c>
     </row>
     <row r="77" ht="67.5" spans="1:7">
-      <c r="A77" s="8">
+      <c r="A77" s="9">
         <v>5.11</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" s="8" t="s">
+      <c r="B77" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G77" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2719,44 +2804,44 @@
         <v>5.12</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" ht="27" spans="1:7">
-      <c r="A79" s="9">
+      <c r="A79" s="11">
         <v>5.13</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="9" t="s">
+      <c r="B79" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="C79" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G79" s="11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2765,7 +2850,7 @@
         <v>6.1</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>23</v>
@@ -2774,10 +2859,10 @@
         <v>24</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>18</v>
@@ -2788,19 +2873,19 @@
         <v>6.2</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>18</v>
@@ -2811,16 +2896,16 @@
         <v>6.3</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>12</v>
@@ -2830,62 +2915,62 @@
       </c>
     </row>
     <row r="83" ht="27" spans="1:7">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="8" t="s">
+      <c r="G83" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8" t="s">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
     </row>
     <row r="86" ht="27" spans="1:7">
       <c r="A86" s="7">
         <v>6.4</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>18</v>
@@ -2896,19 +2981,19 @@
         <v>6.5</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>13</v>
@@ -2919,19 +3004,19 @@
         <v>6.6</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>13</v>
@@ -2942,16 +3027,16 @@
         <v>6.7</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>12</v>
@@ -2959,9 +3044,11 @@
       <c r="G89" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H63:H66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" display="http://123.56.90.212/ecshop-en"/>
